--- a/HW7/活頁簿1.xlsx
+++ b/HW7/活頁簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/ML/HW7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F470182-52E8-0E41-9984-FE90A640BF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5BCBE6-C291-4C44-9223-9A259DE7245C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{9BA6D701-1430-F041-9BEA-51F0E8C5AF25}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>ori</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,192 @@
   </si>
   <si>
     <t>valid=0.683</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Langboat/mengzi-bert-base</t>
+  </si>
+  <si>
+    <t>kaggle=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warm_up_ratio=0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid=0.611</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train=0.648</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train= 0.926</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid= 0.690</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid= 0.685</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train= 0.982</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">train= </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch=30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Boss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strong </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid= 0.681</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hfl/chinese-macbert-large</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mid = int((answer_start_token </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> answer_end_token) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>random</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>uniform(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,1)))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and start_index &lt;= end_index</t>
+  </si>
+  <si>
+    <t>valid=0.779</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train=0.80718</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,9 +321,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -163,11 +368,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,136 +695,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A439A4-49FB-3E41-800A-E5C29DAC4A6B}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="16">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="1">
         <v>0.46550999999999998</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="16">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="16">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="18">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="16">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" s="2">
+        <v>0.84387999999999996</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="2">
+        <v>0.78136000000000005</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="16">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="16">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="16">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="16">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="16">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="16">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="16">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="16">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="16">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="16">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" ht="16">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="16">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="16">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/HW7/活頁簿1.xlsx
+++ b/HW7/活頁簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/ML/HW7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5BCBE6-C291-4C44-9223-9A259DE7245C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D1B13-429E-354C-A578-CC27FAAEE16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{9BA6D701-1430-F041-9BEA-51F0E8C5AF25}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>ori</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,10 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>valid=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>and start_index &lt;= end_index</t>
   </si>
   <si>
@@ -296,7 +292,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>train=0.80718</t>
+    <t>kaggle=0.80718</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid=0.780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid=0.790</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle=0.80798</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch=50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid=0.799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warm_up_ratio=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle=0.80435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stride=60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid=0.784</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid=0.789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch=16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid=0.795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle=0.80758</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +360,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -319,6 +375,12 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -345,6 +407,18 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -368,17 +442,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,450 +781,565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A439A4-49FB-3E41-800A-E5C29DAC4A6B}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="16">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0.46550999999999998</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="16">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="16">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="18">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="3" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="16">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" s="1">
+        <v>0.84387999999999996</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="3">
+        <v>0.78136000000000005</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="16">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="16">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="16">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="16">
-      <c r="A8" s="2">
-        <v>0.84387999999999996</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="16">
-      <c r="A10" s="2">
-        <v>0.78136000000000005</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="16">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="16">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
+    <row r="22" spans="1:9" ht="16">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="16">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="16">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="16">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="16">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16">
+      <c r="I30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16">
+      <c r="I31" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16">
+      <c r="I32" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" ht="16">
+      <c r="I33" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" ht="16">
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="9:9" ht="16">
+      <c r="I35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" ht="16">
+      <c r="I36" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" ht="16">
+      <c r="I37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="16">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="16">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="16">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="16">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="38" spans="9:9" ht="16">
+      <c r="I38" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" ht="16">
+      <c r="I40" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" ht="16">
+      <c r="I41" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" ht="16">
+      <c r="I42" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" ht="16">
+      <c r="I44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9" ht="16">
+      <c r="I45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="16">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="16">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="16">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="16">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="16">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="16">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+    </row>
+    <row r="46" spans="9:9" ht="16">
+      <c r="I46" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9" ht="16">
+      <c r="I47" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9" ht="16">
+      <c r="I48" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
